--- a/Results/metrics_summary_planet_2022.xlsx
+++ b/Results/metrics_summary_planet_2022.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Location_1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Location_3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Location_2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Location_5" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Location_4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Location_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Location_3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Location_2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Location_5" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Location_4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9862629826875431</v>
+        <v>0.9862629826875433</v>
       </c>
       <c r="D2" t="n">
         <v>0.9727146710197291</v>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9086530653517342</v>
+        <v>0.9086530653517344</v>
       </c>
       <c r="D3" t="n">
         <v>0.8256503931731033</v>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7618192764682493</v>
+        <v>0.7618192764682494</v>
       </c>
       <c r="D5" t="n">
         <v>0.5803686099986072</v>
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9501873245373036</v>
+        <v>0.9501873245373038</v>
       </c>
       <c r="D6" t="n">
         <v>0.9028559517113596</v>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.976726142891377</v>
+        <v>0.9767261428913772</v>
       </c>
       <c r="D7" t="n">
         <v>0.9539939582074665</v>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8456891106181483</v>
+        <v>0.8456891106181484</v>
       </c>
       <c r="D10" t="n">
         <v>0.7151900718181148</v>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9916780436769463</v>
+        <v>0.9916780436769461</v>
       </c>
       <c r="D11" t="n">
         <v>0.9834253423109353</v>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8803606333373138</v>
+        <v>0.8803606333373137</v>
       </c>
       <c r="D13" t="n">
         <v>0.7750348447300766</v>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.7056985716408942</v>
+        <v>0.7056985716408941</v>
       </c>
       <c r="D14" t="n">
         <v>0.4980104740159983</v>
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9800793489501092</v>
+        <v>0.9800793489501094</v>
       </c>
       <c r="D15" t="n">
         <v>0.9605555302384701</v>
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9868663688289147</v>
+        <v>0.9868663688289148</v>
       </c>
       <c r="D16" t="n">
         <v>0.9739052299255674</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2973520590062066</v>
+        <v>0.2973520590062065</v>
       </c>
       <c r="D17" t="n">
         <v>0.0884182469952305</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.9850697482518815</v>
+        <v>0.9850697482518812</v>
       </c>
       <c r="D18" t="n">
         <v>0.9703624089210247</v>
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.7973807515191669</v>
+        <v>0.7973807515191668</v>
       </c>
       <c r="D19" t="n">
         <v>0.6358160628932713</v>
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.991780601918955</v>
+        <v>0.9917806019189551</v>
       </c>
       <c r="D20" t="n">
         <v>0.9836287623427247</v>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.6013071323637398</v>
+        <v>0.6013071323637397</v>
       </c>
       <c r="D23" t="n">
         <v>0.3615702674315039</v>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.9738596005613529</v>
+        <v>0.9738596005613531</v>
       </c>
       <c r="D24" t="n">
         <v>0.9484025216055183</v>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.962197113737381</v>
+        <v>0.9621971137373813</v>
       </c>
       <c r="D25" t="n">
         <v>0.9258232856845467</v>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.1664929524922122</v>
+        <v>0.1664929524922123</v>
       </c>
       <c r="D26" t="n">
         <v>0.02771990322957403</v>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.9826470280778691</v>
+        <v>0.982647028077869</v>
       </c>
       <c r="D27" t="n">
         <v>0.9655951817902679</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.8504555478832411</v>
+        <v>-0.850455547883241</v>
       </c>
       <c r="D31" t="n">
         <v>0.7232746389253838</v>
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.9677166358858142</v>
+        <v>-0.9677166358858145</v>
       </c>
       <c r="D33" t="n">
         <v>0.9364754873701583</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.9742705571801717</v>
+        <v>-0.9742705571801719</v>
       </c>
       <c r="D34" t="n">
         <v>0.9492031185881628</v>
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.827291066871116</v>
+        <v>-0.8272910668711159</v>
       </c>
       <c r="D37" t="n">
         <v>0.6844105093247493</v>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.6885749655573824</v>
+        <v>-0.6885749655573825</v>
       </c>
       <c r="D38" t="n">
         <v>0.4741354831923504</v>
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-0.691686228128527</v>
+        <v>-0.6916862281285273</v>
       </c>
       <c r="D42" t="n">
         <v>0.4784298381826688</v>
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.586844939589645</v>
+        <v>-0.5868449395896451</v>
       </c>
       <c r="D43" t="n">
         <v>0.3443869831219741</v>
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-0.4303033495280547</v>
+        <v>-0.4303033495280549</v>
       </c>
       <c r="D46" t="n">
         <v>0.1851609726150633</v>
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.8504555478832411</v>
+        <v>0.850455547883241</v>
       </c>
       <c r="D49" t="n">
         <v>0.7232746389253838</v>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.9677166358858142</v>
+        <v>0.9677166358858145</v>
       </c>
       <c r="D51" t="n">
         <v>0.9364754873701583</v>
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.9742705571801717</v>
+        <v>0.9742705571801719</v>
       </c>
       <c r="D52" t="n">
         <v>0.9492031185881628</v>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.827291066871116</v>
+        <v>0.8272910668711159</v>
       </c>
       <c r="D55" t="n">
         <v>0.6844105093247493</v>
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.991780601793071</v>
+        <v>0.9917806017930709</v>
       </c>
       <c r="D56" t="n">
         <v>0.983628762093026</v>
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.8180755535938461</v>
+        <v>0.8180755535938462</v>
       </c>
       <c r="D58" t="n">
         <v>0.6692476113878779</v>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.9738596010028745</v>
+        <v>0.9738596010028748</v>
       </c>
       <c r="D60" t="n">
         <v>0.9484025224654782</v>
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.9621971143556648</v>
+        <v>0.9621971143556651</v>
       </c>
       <c r="D61" t="n">
         <v>0.9258232868743687</v>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.982647028276908</v>
+        <v>0.9826470282769081</v>
       </c>
       <c r="D63" t="n">
         <v>0.9655951821814381</v>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.7878598277316663</v>
+        <v>0.7878598277316664</v>
       </c>
       <c r="D64" t="n">
         <v>0.6207231081533708</v>
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.986267432927417</v>
+        <v>0.9862674329274168</v>
       </c>
       <c r="D65" t="n">
         <v>0.9727234492532366</v>
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.8839089002848052</v>
+        <v>0.8839089002848051</v>
       </c>
       <c r="D67" t="n">
         <v>0.7812949440026936</v>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.7618030656340115</v>
+        <v>0.7618030656340113</v>
       </c>
       <c r="D68" t="n">
         <v>0.5803439108093777</v>
@@ -1860,7 +1860,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.9501953816493018</v>
+        <v>0.950195381649302</v>
       </c>
       <c r="D69" t="n">
         <v>0.9028712633076628</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.9825175214987929</v>
+        <v>0.9825175214987927</v>
       </c>
       <c r="D72" t="n">
         <v>0.9653406800521306</v>
@@ -1940,7 +1940,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.8456838109107254</v>
+        <v>0.8456838109107253</v>
       </c>
       <c r="D73" t="n">
         <v>0.7151811080364876</v>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.9319465872671013</v>
+        <v>0.9319465872671014</v>
       </c>
       <c r="D75" t="n">
         <v>0.8685244415187974</v>
@@ -2024,7 +2024,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.6705339638921247</v>
+        <v>0.6705339638921246</v>
       </c>
       <c r="D77" t="n">
         <v>0.4496157967328854</v>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.9431731643799527</v>
+        <v>0.943173164379953</v>
       </c>
       <c r="D78" t="n">
         <v>0.8895756180064937</v>
@@ -2064,7 +2064,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.9571417486819011</v>
+        <v>0.9571417486819012</v>
       </c>
       <c r="D79" t="n">
         <v>0.9161203270698478</v>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.8731834505588063</v>
+        <v>0.8731834505588062</v>
       </c>
       <c r="D82" t="n">
         <v>0.7624493383297831</v>
@@ -2168,7 +2168,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.9319465872671013</v>
+        <v>0.9319465872671014</v>
       </c>
       <c r="D84" t="n">
         <v>0.8685244415187974</v>
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.6705339638921247</v>
+        <v>0.6705339638921246</v>
       </c>
       <c r="D86" t="n">
         <v>0.4496157967328854</v>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.9431731643799527</v>
+        <v>0.943173164379953</v>
       </c>
       <c r="D87" t="n">
         <v>0.8895756180064937</v>
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.9571417486819011</v>
+        <v>0.9571417486819012</v>
       </c>
       <c r="D88" t="n">
         <v>0.9161203270698478</v>
@@ -2308,7 +2308,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.8731834505588063</v>
+        <v>0.8731834505588062</v>
       </c>
       <c r="D91" t="n">
         <v>0.7624493383297831</v>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.9430621145960275</v>
+        <v>0.9430621145960274</v>
       </c>
       <c r="D92" t="n">
         <v>0.8893661519863305</v>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.8660790984992316</v>
+        <v>0.8660790984992317</v>
       </c>
       <c r="D93" t="n">
         <v>0.7500930048572418</v>
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.9451928089351856</v>
+        <v>0.945192808935186</v>
       </c>
       <c r="D96" t="n">
         <v>0.8933894460627868</v>
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.9816760558610409</v>
+        <v>0.9816760558610411</v>
       </c>
       <c r="D97" t="n">
         <v>0.9636878786508897</v>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.4971054445668398</v>
+        <v>0.4971054445668399</v>
       </c>
       <c r="D98" t="n">
         <v>0.2471138230179955</v>
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.9313670810504934</v>
+        <v>0.9313670810504935</v>
       </c>
       <c r="D99" t="n">
         <v>0.8674446396645161</v>
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.7580154112815967</v>
+        <v>0.7580154112815968</v>
       </c>
       <c r="D100" t="n">
         <v>0.5745873637404083</v>
@@ -2506,17 +2506,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A38:A46"/>
     <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A56:A64"/>
     <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A38:A46"/>
     <mergeCell ref="A74:A82"/>
     <mergeCell ref="A83:A91"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A20:A28"/>
     <mergeCell ref="A92:A100"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6144505863208249</v>
+        <v>0.6144505863208247</v>
       </c>
       <c r="D3" t="n">
         <v>0.377549523030005</v>
@@ -2630,7 +2630,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5524583661179178</v>
+        <v>0.5524583661179175</v>
       </c>
       <c r="D5" t="n">
         <v>0.3052102462936789</v>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7337042769596956</v>
+        <v>0.7337042769596954</v>
       </c>
       <c r="D6" t="n">
         <v>0.5383219660289494</v>
@@ -2670,7 +2670,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7498648775117601</v>
+        <v>0.74986487751176</v>
       </c>
       <c r="D7" t="n">
         <v>0.5622973345257268</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9827556933306231</v>
+        <v>0.982755693330623</v>
       </c>
       <c r="D9" t="n">
         <v>0.9658087527737528</v>
@@ -2730,7 +2730,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7974086665329712</v>
+        <v>0.797408666532971</v>
       </c>
       <c r="D10" t="n">
         <v>0.6358605814618908</v>
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9408150405631831</v>
+        <v>0.9408150405631832</v>
       </c>
       <c r="D11" t="n">
         <v>0.8851329405499034</v>
@@ -2774,7 +2774,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6466243821453832</v>
+        <v>0.6466243821453831</v>
       </c>
       <c r="D12" t="n">
         <v>0.4181230915848986</v>
@@ -2794,7 +2794,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9183950590102266</v>
+        <v>0.9183950590102268</v>
       </c>
       <c r="D13" t="n">
         <v>0.8434494844143982</v>
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.5967321015897477</v>
+        <v>0.5967321015897474</v>
       </c>
       <c r="D14" t="n">
         <v>0.3560892010677166</v>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8368349102009879</v>
+        <v>0.8368349102009878</v>
       </c>
       <c r="D16" t="n">
         <v>0.7002926669310953</v>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.02888621086939475</v>
+        <v>0.02888621086939479</v>
       </c>
       <c r="D17" t="n">
         <v>0.0008344131783911392</v>
@@ -2938,7 +2938,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.9712377571825401</v>
+        <v>0.97123775718254</v>
       </c>
       <c r="D20" t="n">
         <v>0.9433027809769705</v>
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.6737118014391066</v>
+        <v>0.6737118014391065</v>
       </c>
       <c r="D21" t="n">
         <v>0.453887591398326</v>
@@ -2978,7 +2978,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.9576546245993701</v>
+        <v>0.9576546245993702</v>
       </c>
       <c r="D22" t="n">
         <v>0.917102380016561</v>
@@ -2998,7 +2998,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.6202735363462492</v>
+        <v>0.620273536346249</v>
       </c>
       <c r="D23" t="n">
         <v>0.3847392598914817</v>
@@ -3018,7 +3018,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.8566354286111433</v>
+        <v>0.8566354286111431</v>
       </c>
       <c r="D24" t="n">
         <v>0.7338242575517974</v>
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.09680124272756094</v>
+        <v>-0.09680124272756092</v>
       </c>
       <c r="D26" t="n">
         <v>0.00937048059360018</v>
@@ -3078,7 +3078,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.9960666125077492</v>
+        <v>0.9960666125077489</v>
       </c>
       <c r="D27" t="n">
         <v>0.9921486965526626</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.700126586683912</v>
+        <v>0.7001265866839119</v>
       </c>
       <c r="D28" t="n">
         <v>0.4901772373816652</v>
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.9245429610238988</v>
+        <v>-0.9245429610238989</v>
       </c>
       <c r="D29" t="n">
         <v>0.8547796867788388</v>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.6458955616344227</v>
+        <v>-0.6458955616344226</v>
       </c>
       <c r="D30" t="n">
         <v>0.4171810765390464</v>
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.9010980760972471</v>
+        <v>-0.9010980760972473</v>
       </c>
       <c r="D31" t="n">
         <v>0.811977742746161</v>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.5793019352185955</v>
+        <v>-0.5793019352185953</v>
       </c>
       <c r="D32" t="n">
         <v>0.3355907321480097</v>
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.8017955288014199</v>
+        <v>-0.80179552880142</v>
       </c>
       <c r="D34" t="n">
         <v>0.6428760700059486</v>
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.05790031810735524</v>
+        <v>-0.05790031810735529</v>
       </c>
       <c r="D35" t="n">
         <v>0.003352446836932941</v>
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.7420262032037832</v>
+        <v>-0.7420262032037831</v>
       </c>
       <c r="D37" t="n">
         <v>0.5506028862410222</v>
@@ -3306,7 +3306,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.4032071721417012</v>
+        <v>-0.4032071721417011</v>
       </c>
       <c r="D38" t="n">
         <v>0.1625760236665074</v>
@@ -3366,7 +3366,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-0.2871033557048671</v>
+        <v>-0.287103355704867</v>
       </c>
       <c r="D41" t="n">
         <v>0.08242833685699538</v>
@@ -3386,7 +3386,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-0.5262124696842601</v>
+        <v>-0.5262124696842599</v>
       </c>
       <c r="D42" t="n">
         <v>0.2768995632512081</v>
@@ -3406,7 +3406,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.5190789779788861</v>
+        <v>-0.519078977978886</v>
       </c>
       <c r="D43" t="n">
         <v>0.2694429853796048</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.9143287192064794</v>
+        <v>0.9143287192064793</v>
       </c>
       <c r="D44" t="n">
         <v>0.8359970067657613</v>
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.9245429610238988</v>
+        <v>0.9245429610238989</v>
       </c>
       <c r="D47" t="n">
         <v>0.8547796867788388</v>
@@ -3510,7 +3510,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.6458955616344227</v>
+        <v>0.6458955616344226</v>
       </c>
       <c r="D48" t="n">
         <v>0.4171810765390464</v>
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.9010980760972471</v>
+        <v>0.9010980760972473</v>
       </c>
       <c r="D49" t="n">
         <v>0.811977742746161</v>
@@ -3550,7 +3550,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.5793019352185955</v>
+        <v>0.5793019352185953</v>
       </c>
       <c r="D50" t="n">
         <v>0.3355907321480097</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.8017955288014199</v>
+        <v>0.80179552880142</v>
       </c>
       <c r="D52" t="n">
         <v>0.6428760700059486</v>
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.05790031810735524</v>
+        <v>0.05790031810735529</v>
       </c>
       <c r="D53" t="n">
         <v>0.003352446836932941</v>
@@ -3650,7 +3650,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.7420262032037832</v>
+        <v>0.7420262032037831</v>
       </c>
       <c r="D55" t="n">
         <v>0.5506028862410222</v>
@@ -3714,7 +3714,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.9576546272369932</v>
+        <v>0.9576546272369936</v>
       </c>
       <c r="D58" t="n">
         <v>0.9171023850684251</v>
@@ -3734,7 +3734,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.6202735461571165</v>
+        <v>0.6202735461571163</v>
       </c>
       <c r="D59" t="n">
         <v>0.3847392720623244</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.8566354256054862</v>
+        <v>0.8566354256054861</v>
       </c>
       <c r="D60" t="n">
         <v>0.7338242524022925</v>
@@ -3774,7 +3774,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.8856266579018066</v>
+        <v>0.8856266579018067</v>
       </c>
       <c r="D61" t="n">
         <v>0.7843345771863236</v>
@@ -3794,7 +3794,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>-0.09680124487357476</v>
+        <v>-0.0968012448735748</v>
       </c>
       <c r="D62" t="n">
         <v>0.00937048100907379</v>
@@ -3814,7 +3814,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.9960666117513586</v>
+        <v>0.9960666117513585</v>
       </c>
       <c r="D63" t="n">
         <v>0.9921486950458313</v>
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.8565196047409119</v>
+        <v>0.8565196047409123</v>
       </c>
       <c r="D67" t="n">
         <v>0.733625833305529</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.5524665414161931</v>
+        <v>0.552466541416193</v>
       </c>
       <c r="D68" t="n">
         <v>0.3052192793843701</v>
@@ -3938,7 +3938,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.7337517184311996</v>
+        <v>0.7337517184311995</v>
       </c>
       <c r="D69" t="n">
         <v>0.5383915843007384</v>
@@ -3998,7 +3998,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.9827690452623575</v>
+        <v>0.9827690452623574</v>
       </c>
       <c r="D72" t="n">
         <v>0.965834996325886</v>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.7974004997173303</v>
+        <v>0.7974004997173302</v>
       </c>
       <c r="D73" t="n">
         <v>0.6358475569494478</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.8836376359708756</v>
+        <v>0.8836376359708757</v>
       </c>
       <c r="D74" t="n">
         <v>0.780815471704198</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.8389953308291677</v>
+        <v>0.838995330829168</v>
       </c>
       <c r="D76" t="n">
         <v>0.7039131651531453</v>
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.7407829212519822</v>
+        <v>0.7407829212519821</v>
       </c>
       <c r="D82" t="n">
         <v>0.5487593364186203</v>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.8836376359708756</v>
+        <v>0.8836376359708757</v>
       </c>
       <c r="D83" t="n">
         <v>0.780815471704198</v>
@@ -4266,7 +4266,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.8389953308291677</v>
+        <v>0.838995330829168</v>
       </c>
       <c r="D85" t="n">
         <v>0.7039131651531453</v>
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.7407829212519822</v>
+        <v>0.7407829212519821</v>
       </c>
       <c r="D91" t="n">
         <v>0.5487593364186203</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.904363507604192</v>
+        <v>0.9043635076041923</v>
       </c>
       <c r="D92" t="n">
         <v>0.8178733538861573</v>
@@ -4450,7 +4450,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.8886825505533935</v>
+        <v>0.888682550553394</v>
       </c>
       <c r="D94" t="n">
         <v>0.7897566756580858</v>
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.9848644280345467</v>
+        <v>0.984864428034547</v>
       </c>
       <c r="D99" t="n">
         <v>0.9699579416078156</v>
@@ -4570,7 +4570,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.829711568812771</v>
+        <v>0.8297115688127711</v>
       </c>
       <c r="D100" t="n">
         <v>0.6884212874217494</v>
@@ -4584,17 +4584,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A38:A46"/>
     <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A56:A64"/>
     <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A38:A46"/>
     <mergeCell ref="A74:A82"/>
     <mergeCell ref="A83:A91"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A20:A28"/>
     <mergeCell ref="A92:A100"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4648,7 +4648,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9298399782019158</v>
+        <v>0.9298399782019157</v>
       </c>
       <c r="D2" t="n">
         <v>0.8646023850625389</v>
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8573552762432526</v>
+        <v>0.8573552762432527</v>
       </c>
       <c r="D3" t="n">
         <v>0.7350580697021442</v>
@@ -4728,7 +4728,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8059204788205097</v>
+        <v>0.8059204788205098</v>
       </c>
       <c r="D6" t="n">
         <v>0.6495078181822798</v>
@@ -4748,7 +4748,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8603995986697722</v>
+        <v>0.8603995986697721</v>
       </c>
       <c r="D7" t="n">
         <v>0.7402874693911051</v>
@@ -4768,7 +4768,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.6428009720460671</v>
+        <v>0.642800972046067</v>
       </c>
       <c r="D8" t="n">
         <v>0.4131930896633685</v>
@@ -4788,7 +4788,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8176924266894064</v>
+        <v>0.8176924266894063</v>
       </c>
       <c r="D9" t="n">
         <v>0.6686209046652102</v>
@@ -4808,7 +4808,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9736883501917808</v>
+        <v>0.9736883501917805</v>
       </c>
       <c r="D10" t="n">
         <v>0.9480690032991911</v>
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8882763142373864</v>
+        <v>0.8882763142373862</v>
       </c>
       <c r="D11" t="n">
         <v>0.7890348104351557</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8455653819146105</v>
+        <v>0.8455653819146104</v>
       </c>
       <c r="D12" t="n">
         <v>0.7149808150924011</v>
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8443567198766224</v>
+        <v>0.8443567198766222</v>
       </c>
       <c r="D13" t="n">
         <v>0.712938270400809</v>
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.7482353185021053</v>
+        <v>0.7482353185021052</v>
       </c>
       <c r="D14" t="n">
         <v>0.559856091853947</v>
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7937620265411107</v>
+        <v>0.7937620265411106</v>
       </c>
       <c r="D15" t="n">
         <v>0.630058154778651</v>
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8515627527174368</v>
+        <v>0.8515627527174369</v>
       </c>
       <c r="D16" t="n">
         <v>0.7251591218156983</v>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.5725751363015543</v>
+        <v>0.5725751363015541</v>
       </c>
       <c r="D17" t="n">
         <v>0.3278422867107436</v>
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.8129355900936307</v>
+        <v>0.8129355900936306</v>
       </c>
       <c r="D18" t="n">
         <v>0.6608642736408797</v>
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.9635142051326128</v>
+        <v>0.9635142051326124</v>
       </c>
       <c r="D19" t="n">
         <v>0.9283596234923304</v>
@@ -5016,7 +5016,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.9440311631796292</v>
+        <v>0.944031163179629</v>
       </c>
       <c r="D20" t="n">
         <v>0.891194837054283</v>
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.8821789788009563</v>
+        <v>0.8821789788009564</v>
       </c>
       <c r="D24" t="n">
         <v>0.7782397506382981</v>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.4981732840776331</v>
+        <v>0.4981732840776329</v>
       </c>
       <c r="D26" t="n">
         <v>0.2481766209686941</v>
@@ -5156,7 +5156,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.8972794562698575</v>
+        <v>0.8972794562698576</v>
       </c>
       <c r="D27" t="n">
         <v>0.805110422643931</v>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.9862700292047437</v>
+        <v>0.9862700292047435</v>
       </c>
       <c r="D28" t="n">
         <v>0.9727285705075256</v>
@@ -5200,7 +5200,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.9619844783332524</v>
+        <v>-0.9619844783332521</v>
       </c>
       <c r="D29" t="n">
         <v>0.9254141365540987</v>
@@ -5220,7 +5220,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.9122864746091793</v>
+        <v>-0.9122864746091794</v>
       </c>
       <c r="D30" t="n">
         <v>0.832266611754845</v>
@@ -5240,7 +5240,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.9013790368622148</v>
+        <v>-0.9013790368622145</v>
       </c>
       <c r="D31" t="n">
         <v>0.8124841680946533</v>
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.7962188926673842</v>
+        <v>-0.7962188926673839</v>
       </c>
       <c r="D32" t="n">
         <v>0.633964525040475</v>
@@ -5280,7 +5280,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.8653052149288238</v>
+        <v>-0.8653052149288236</v>
       </c>
       <c r="D33" t="n">
         <v>0.7487531149830178</v>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.5643968271614118</v>
+        <v>-0.5643968271614117</v>
       </c>
       <c r="D35" t="n">
         <v>0.3185437785098686</v>
@@ -5340,7 +5340,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.8769519718532086</v>
+        <v>-0.8769519718532087</v>
       </c>
       <c r="D36" t="n">
         <v>0.769044760937231</v>
@@ -5360,7 +5360,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.9894363048782778</v>
+        <v>-0.9894363048782775</v>
       </c>
       <c r="D37" t="n">
         <v>0.9789842014111797</v>
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.02598639492388644</v>
+        <v>0.02598639492388642</v>
       </c>
       <c r="D39" t="n">
         <v>0.0006752927211401946</v>
@@ -5424,7 +5424,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.08931043664460495</v>
+        <v>0.08931043664460489</v>
       </c>
       <c r="D40" t="n">
         <v>0.007976354093649997</v>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-0.04227515845924124</v>
+        <v>-0.04227515845924121</v>
       </c>
       <c r="D42" t="n">
         <v>0.001787189022753957</v>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.8144401275722806</v>
+        <v>0.8144401275722805</v>
       </c>
       <c r="D44" t="n">
         <v>0.6633127213999525</v>
@@ -5524,7 +5524,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-0.0279404378927266</v>
+        <v>-0.02794043789272664</v>
       </c>
       <c r="D45" t="n">
         <v>0.0007806680696373116</v>
@@ -5544,7 +5544,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.3629017439105554</v>
+        <v>0.3629017439105553</v>
       </c>
       <c r="D46" t="n">
         <v>0.1316976757333223</v>
@@ -5568,7 +5568,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.9619844783332524</v>
+        <v>0.9619844783332521</v>
       </c>
       <c r="D47" t="n">
         <v>0.9254141365540987</v>
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.9122864746091793</v>
+        <v>0.9122864746091794</v>
       </c>
       <c r="D48" t="n">
         <v>0.832266611754845</v>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.9013790368622148</v>
+        <v>0.9013790368622145</v>
       </c>
       <c r="D49" t="n">
         <v>0.8124841680946533</v>
@@ -5628,7 +5628,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.7962188926673842</v>
+        <v>0.7962188926673839</v>
       </c>
       <c r="D50" t="n">
         <v>0.633964525040475</v>
@@ -5648,7 +5648,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.8653052149288238</v>
+        <v>0.8653052149288236</v>
       </c>
       <c r="D51" t="n">
         <v>0.7487531149830178</v>
@@ -5688,7 +5688,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.5643968271614118</v>
+        <v>0.5643968271614117</v>
       </c>
       <c r="D53" t="n">
         <v>0.3185437785098686</v>
@@ -5708,7 +5708,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.8769519718532086</v>
+        <v>0.8769519718532087</v>
       </c>
       <c r="D54" t="n">
         <v>0.769044760937231</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.9894363048782778</v>
+        <v>0.9894363048782775</v>
       </c>
       <c r="D55" t="n">
         <v>0.9789842014111797</v>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.9440311625797819</v>
+        <v>0.9440311625797817</v>
       </c>
       <c r="D56" t="n">
         <v>0.8911948359217342</v>
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.9214471890279488</v>
+        <v>0.9214471890279489</v>
       </c>
       <c r="D57" t="n">
         <v>0.8490649221675085</v>
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.4981732834368715</v>
+        <v>0.4981732834368713</v>
       </c>
       <c r="D62" t="n">
         <v>0.2481766203302734</v>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.9862700289957467</v>
+        <v>0.9862700289957465</v>
       </c>
       <c r="D64" t="n">
         <v>0.9727285700952704</v>
@@ -5936,7 +5936,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.9298381422585624</v>
+        <v>0.9298381422585623</v>
       </c>
       <c r="D65" t="n">
         <v>0.8645989707988542</v>
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.8573569906775278</v>
+        <v>0.857356990677528</v>
       </c>
       <c r="D66" t="n">
         <v>0.7350610094636265</v>
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.806918946006431</v>
+        <v>0.8069189460064311</v>
       </c>
       <c r="D68" t="n">
         <v>0.6511181854241295</v>
@@ -6036,7 +6036,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.8604059034033505</v>
+        <v>0.8604059034033504</v>
       </c>
       <c r="D70" t="n">
         <v>0.7402983186113352</v>
@@ -6056,7 +6056,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.6427960372578788</v>
+        <v>0.6427960372578786</v>
       </c>
       <c r="D71" t="n">
         <v>0.413186745514432</v>
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.9736888170436404</v>
+        <v>0.9736888170436402</v>
       </c>
       <c r="D73" t="n">
         <v>0.9480699124358434</v>
@@ -6120,7 +6120,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.9446409668109799</v>
+        <v>0.9446409668109794</v>
       </c>
       <c r="D74" t="n">
         <v>0.8923465561775823</v>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.8952920494572884</v>
+        <v>0.8952920494572882</v>
       </c>
       <c r="D75" t="n">
         <v>0.8015478538214319</v>
@@ -6160,7 +6160,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.8799154933713627</v>
+        <v>0.8799154933713624</v>
       </c>
       <c r="D76" t="n">
         <v>0.7742512754749685</v>
@@ -6180,7 +6180,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.7756318367245995</v>
+        <v>0.7756318367245992</v>
       </c>
       <c r="D77" t="n">
         <v>0.6016047461407754</v>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.8853724142846219</v>
+        <v>0.8853724142846217</v>
       </c>
       <c r="D79" t="n">
         <v>0.7838843119761799</v>
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.5664574937308717</v>
+        <v>0.5664574937308714</v>
       </c>
       <c r="D80" t="n">
         <v>0.3208740922038605</v>
@@ -6260,7 +6260,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.8598115888813055</v>
+        <v>0.8598115888813052</v>
       </c>
       <c r="D81" t="n">
         <v>0.7392759683745951</v>
@@ -6280,7 +6280,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.9915484274011307</v>
+        <v>0.9915484274011304</v>
       </c>
       <c r="D82" t="n">
         <v>0.9831682838816551</v>
@@ -6304,7 +6304,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.9446409668109799</v>
+        <v>0.9446409668109794</v>
       </c>
       <c r="D83" t="n">
         <v>0.8923465561775823</v>
@@ -6324,7 +6324,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.8952920494572884</v>
+        <v>0.8952920494572882</v>
       </c>
       <c r="D84" t="n">
         <v>0.8015478538214319</v>
@@ -6344,7 +6344,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.8799154933713627</v>
+        <v>0.8799154933713624</v>
       </c>
       <c r="D85" t="n">
         <v>0.7742512754749685</v>
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.7756318367245995</v>
+        <v>0.7756318367245992</v>
       </c>
       <c r="D86" t="n">
         <v>0.6016047461407754</v>
@@ -6404,7 +6404,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.8853724142846219</v>
+        <v>0.8853724142846217</v>
       </c>
       <c r="D88" t="n">
         <v>0.7838843119761799</v>
@@ -6424,7 +6424,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.5664574937308717</v>
+        <v>0.5664574937308714</v>
       </c>
       <c r="D89" t="n">
         <v>0.3208740922038605</v>
@@ -6444,7 +6444,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.8598115888813055</v>
+        <v>0.8598115888813052</v>
       </c>
       <c r="D90" t="n">
         <v>0.7392759683745951</v>
@@ -6464,7 +6464,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.9915484274011307</v>
+        <v>0.9915484274011304</v>
       </c>
       <c r="D91" t="n">
         <v>0.9831682838816551</v>
@@ -6488,7 +6488,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.8772233749803253</v>
+        <v>0.8772233749803251</v>
       </c>
       <c r="D92" t="n">
         <v>0.7695208496118721</v>
@@ -6548,7 +6548,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.8138105597308526</v>
+        <v>0.8138105597308525</v>
       </c>
       <c r="D95" t="n">
         <v>0.6622876271294434</v>
@@ -6568,7 +6568,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.7378297295808222</v>
+        <v>0.7378297295808223</v>
       </c>
       <c r="D96" t="n">
         <v>0.5443927098533093</v>
@@ -6608,7 +6608,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.7107821677917198</v>
+        <v>0.7107821677917197</v>
       </c>
       <c r="D98" t="n">
         <v>0.5052112900506964</v>
@@ -6628,7 +6628,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.7445223310525266</v>
+        <v>0.7445223310525267</v>
       </c>
       <c r="D99" t="n">
         <v>0.5543135014358884</v>
@@ -6662,17 +6662,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A38:A46"/>
     <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A56:A64"/>
     <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A38:A46"/>
     <mergeCell ref="A74:A82"/>
     <mergeCell ref="A83:A91"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A20:A28"/>
     <mergeCell ref="A92:A100"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6726,7 +6726,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8428829038689248</v>
+        <v>0.8428829038689247</v>
       </c>
       <c r="D2" t="n">
         <v>0.710451589634511</v>
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.757887933074207</v>
+        <v>0.7578879330742071</v>
       </c>
       <c r="D3" t="n">
         <v>0.5743941190994941</v>
@@ -6806,7 +6806,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8940114802776856</v>
+        <v>0.8940114802776855</v>
       </c>
       <c r="D6" t="n">
         <v>0.7992565268682981</v>
@@ -6826,7 +6826,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.933331980052067</v>
+        <v>0.9333319800520671</v>
       </c>
       <c r="D7" t="n">
         <v>0.8711085849879121</v>
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7301602319729719</v>
+        <v>0.7301602319729718</v>
       </c>
       <c r="D8" t="n">
         <v>0.5331339643548237</v>
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9808154079255638</v>
+        <v>0.9808154079255635</v>
       </c>
       <c r="D10" t="n">
         <v>0.9619988644241896</v>
@@ -6950,7 +6950,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9153052552548528</v>
+        <v>0.9153052552548532</v>
       </c>
       <c r="D13" t="n">
         <v>0.8377837102971517</v>
@@ -7030,7 +7030,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.7035580068875602</v>
+        <v>0.70355800688756</v>
       </c>
       <c r="D17" t="n">
         <v>0.4949938690555957</v>
@@ -7050,7 +7050,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.7251367338927517</v>
+        <v>0.7251367338927519</v>
       </c>
       <c r="D18" t="n">
         <v>0.5258232828406472</v>
@@ -7070,7 +7070,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.981911633723919</v>
+        <v>0.9819116337239189</v>
       </c>
       <c r="D19" t="n">
         <v>0.9641504564423756</v>
@@ -7094,7 +7094,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.8152587285467807</v>
+        <v>0.8152587285467806</v>
       </c>
       <c r="D20" t="n">
         <v>0.6646467944717135</v>
@@ -7114,7 +7114,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.7141550923067711</v>
+        <v>0.714155092306771</v>
       </c>
       <c r="D21" t="n">
         <v>0.510017495867693</v>
@@ -7134,7 +7134,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.9272433138071233</v>
+        <v>0.9272433138071234</v>
       </c>
       <c r="D22" t="n">
         <v>0.8597801630000156</v>
@@ -7154,7 +7154,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.9451364654349143</v>
+        <v>0.9451364654349144</v>
       </c>
       <c r="D23" t="n">
         <v>0.8932829382948035</v>
@@ -7174,7 +7174,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.900944082721627</v>
+        <v>0.9009440827216268</v>
       </c>
       <c r="D24" t="n">
         <v>0.8117002401911136</v>
@@ -7194,7 +7194,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.9407856904104593</v>
+        <v>0.9407856904104595</v>
       </c>
       <c r="D25" t="n">
         <v>0.8850777152810853</v>
@@ -7214,7 +7214,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.6999379639213337</v>
+        <v>0.6999379639213336</v>
       </c>
       <c r="D26" t="n">
         <v>0.4899131533383422</v>
@@ -7234,7 +7234,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.7661419660007184</v>
+        <v>0.7661419660007186</v>
       </c>
       <c r="D27" t="n">
         <v>0.5869735120674463</v>
@@ -7254,7 +7254,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.9534226455082168</v>
+        <v>0.9534226455082166</v>
       </c>
       <c r="D28" t="n">
         <v>0.9090147409678866</v>
@@ -7278,7 +7278,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.8429579485413725</v>
+        <v>-0.8429579485413723</v>
       </c>
       <c r="D29" t="n">
         <v>0.7105781030090789</v>
@@ -7298,7 +7298,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.7826484067213796</v>
+        <v>-0.7826484067213793</v>
       </c>
       <c r="D30" t="n">
         <v>0.612538528543514</v>
@@ -7318,7 +7318,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.929315392536079</v>
+        <v>-0.9293153925360791</v>
       </c>
       <c r="D31" t="n">
         <v>0.8636270988044872</v>
@@ -7358,7 +7358,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.8905211463299987</v>
+        <v>-0.8905211463299983</v>
       </c>
       <c r="D33" t="n">
         <v>0.7930279120608945</v>
@@ -7378,7 +7378,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.9081319651275731</v>
+        <v>-0.908131965127573</v>
       </c>
       <c r="D34" t="n">
         <v>0.8247036660864673</v>
@@ -7398,7 +7398,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.7136225303733416</v>
+        <v>-0.7136225303733414</v>
       </c>
       <c r="D35" t="n">
         <v>0.5092571158564506</v>
@@ -7418,7 +7418,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.7958965156097627</v>
+        <v>-0.7958965156097628</v>
       </c>
       <c r="D36" t="n">
         <v>0.6334512635597611</v>
@@ -7438,7 +7438,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.9423760124754306</v>
+        <v>-0.9423760124754301</v>
       </c>
       <c r="D37" t="n">
         <v>0.888072548889092</v>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.6503538533478355</v>
+        <v>0.6503538533478354</v>
       </c>
       <c r="D38" t="n">
         <v>0.4229601345643776</v>
@@ -7502,7 +7502,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.823570299621851</v>
+        <v>0.8235702996218511</v>
       </c>
       <c r="D40" t="n">
         <v>0.6782680384192254</v>
@@ -7522,7 +7522,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.9552728607621406</v>
+        <v>0.9552728607621405</v>
       </c>
       <c r="D41" t="n">
         <v>0.9125462385086835</v>
@@ -7542,7 +7542,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.7377280042577909</v>
+        <v>0.7377280042577907</v>
       </c>
       <c r="D42" t="n">
         <v>0.5442426082661828</v>
@@ -7562,7 +7562,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.8619037822342874</v>
+        <v>0.8619037822342873</v>
       </c>
       <c r="D43" t="n">
         <v>0.74287812982977</v>
@@ -7582,7 +7582,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.6848155664700072</v>
+        <v>0.6848155664700071</v>
       </c>
       <c r="D44" t="n">
         <v>0.4689723600796367</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.9373811706342557</v>
+        <v>0.9373811706342554</v>
       </c>
       <c r="D46" t="n">
         <v>0.8786834590596471</v>
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.8429579485413725</v>
+        <v>0.8429579485413723</v>
       </c>
       <c r="D47" t="n">
         <v>0.7105781030090789</v>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.7826484067213796</v>
+        <v>0.7826484067213793</v>
       </c>
       <c r="D48" t="n">
         <v>0.612538528543514</v>
@@ -7686,7 +7686,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.929315392536079</v>
+        <v>0.9293153925360791</v>
       </c>
       <c r="D49" t="n">
         <v>0.8636270988044872</v>
@@ -7726,7 +7726,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.8905211463299987</v>
+        <v>0.8905211463299983</v>
       </c>
       <c r="D51" t="n">
         <v>0.7930279120608945</v>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.9081319651275731</v>
+        <v>0.908131965127573</v>
       </c>
       <c r="D52" t="n">
         <v>0.8247036660864673</v>
@@ -7766,7 +7766,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.7136225303733416</v>
+        <v>0.7136225303733414</v>
       </c>
       <c r="D53" t="n">
         <v>0.5092571158564506</v>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.7958965156097627</v>
+        <v>0.7958965156097628</v>
       </c>
       <c r="D54" t="n">
         <v>0.6334512635597611</v>
@@ -7806,7 +7806,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.9423760124754306</v>
+        <v>0.9423760124754301</v>
       </c>
       <c r="D55" t="n">
         <v>0.888072548889092</v>
@@ -7830,7 +7830,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.8152587257011538</v>
+        <v>0.8152587257011537</v>
       </c>
       <c r="D56" t="n">
         <v>0.6646467898318692</v>
@@ -7870,7 +7870,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.9272433135101046</v>
+        <v>0.927243313510105</v>
       </c>
       <c r="D58" t="n">
         <v>0.859780162449199</v>
@@ -7890,7 +7890,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.9451364657585747</v>
+        <v>0.9451364657585748</v>
       </c>
       <c r="D59" t="n">
         <v>0.8932829389066098</v>
@@ -7930,7 +7930,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.940785688205852</v>
+        <v>0.9407856882058521</v>
       </c>
       <c r="D61" t="n">
         <v>0.8850777111329585</v>
@@ -7950,7 +7950,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.6999379696895568</v>
+        <v>0.6999379696895567</v>
       </c>
       <c r="D62" t="n">
         <v>0.4899131614131388</v>
@@ -7970,7 +7970,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.7661419635145703</v>
+        <v>0.7661419635145708</v>
       </c>
       <c r="D63" t="n">
         <v>0.5869735082579614</v>
@@ -7990,7 +7990,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.953422644974521</v>
+        <v>0.9534226449745209</v>
       </c>
       <c r="D64" t="n">
         <v>0.9090147399502111</v>
@@ -8014,7 +8014,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.8429311676036564</v>
+        <v>0.8429311676036563</v>
       </c>
       <c r="D65" t="n">
         <v>0.7105329533176633</v>
@@ -8034,7 +8034,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.7579210474774519</v>
+        <v>0.7579210474774517</v>
       </c>
       <c r="D66" t="n">
         <v>0.5744443142093181</v>
@@ -8074,7 +8074,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.9650682043178332</v>
+        <v>0.9650682043178331</v>
       </c>
       <c r="D68" t="n">
         <v>0.9313566389852471</v>
@@ -8094,7 +8094,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.8940436526590528</v>
+        <v>0.8940436526590526</v>
       </c>
       <c r="D69" t="n">
         <v>0.7993140528599407</v>
@@ -8114,7 +8114,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.9333507174910798</v>
+        <v>0.9333507174910796</v>
       </c>
       <c r="D70" t="n">
         <v>0.871143561841113</v>
@@ -8134,7 +8134,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.7301255054201047</v>
+        <v>0.7301255054201046</v>
       </c>
       <c r="D71" t="n">
         <v>0.533083253664963</v>
@@ -8154,7 +8154,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.7971626255188915</v>
+        <v>0.7971626255188916</v>
       </c>
       <c r="D72" t="n">
         <v>0.6354682515241724</v>
@@ -8174,7 +8174,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.9808284870390626</v>
+        <v>0.9808284870390622</v>
       </c>
       <c r="D73" t="n">
         <v>0.962024520987336</v>
@@ -8198,7 +8198,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.6519770123636311</v>
+        <v>0.651977012363631</v>
       </c>
       <c r="D74" t="n">
         <v>0.4250740246506066</v>
@@ -8238,7 +8238,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.8366471218461008</v>
+        <v>0.836647121846101</v>
       </c>
       <c r="D76" t="n">
         <v>0.6999784064933644</v>
@@ -8258,7 +8258,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.961411513371507</v>
+        <v>0.9614115133715069</v>
       </c>
       <c r="D77" t="n">
         <v>0.9243120980432916</v>
@@ -8318,7 +8318,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.705022791239399</v>
+        <v>0.7050227912393989</v>
       </c>
       <c r="D80" t="n">
         <v>0.4970571361669929</v>
@@ -8338,7 +8338,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.5794154589412619</v>
+        <v>0.579415458941262</v>
       </c>
       <c r="D81" t="n">
         <v>0.3357222740601133</v>
@@ -8358,7 +8358,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.9359170602232054</v>
+        <v>0.9359170602232052</v>
       </c>
       <c r="D82" t="n">
         <v>0.8759407436168469</v>
@@ -8382,7 +8382,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.6519770123636311</v>
+        <v>0.651977012363631</v>
       </c>
       <c r="D83" t="n">
         <v>0.4250740246506066</v>
@@ -8422,7 +8422,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.8366471218461008</v>
+        <v>0.836647121846101</v>
       </c>
       <c r="D85" t="n">
         <v>0.6999784064933644</v>
@@ -8442,7 +8442,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.961411513371507</v>
+        <v>0.9614115133715069</v>
       </c>
       <c r="D86" t="n">
         <v>0.9243120980432916</v>
@@ -8502,7 +8502,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.705022791239399</v>
+        <v>0.7050227912393989</v>
       </c>
       <c r="D89" t="n">
         <v>0.4970571361669929</v>
@@ -8522,7 +8522,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.5794154589412619</v>
+        <v>0.579415458941262</v>
       </c>
       <c r="D90" t="n">
         <v>0.3357222740601133</v>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.9359170602232054</v>
+        <v>0.9359170602232052</v>
       </c>
       <c r="D91" t="n">
         <v>0.8759407436168469</v>
@@ -8566,7 +8566,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.9060611835325009</v>
+        <v>0.9060611835325008</v>
       </c>
       <c r="D92" t="n">
         <v>0.8209468683043158</v>
@@ -8586,7 +8586,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.8541474784092705</v>
+        <v>0.8541474784092703</v>
       </c>
       <c r="D93" t="n">
         <v>0.7295679148729153</v>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.9221843480225606</v>
+        <v>0.9221843480225603</v>
       </c>
       <c r="D95" t="n">
         <v>0.8504239717377948</v>
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.9072789906780823</v>
+        <v>0.907278990678082</v>
       </c>
       <c r="D96" t="n">
         <v>0.8231551669258397</v>
@@ -8666,7 +8666,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.9041785393231524</v>
+        <v>0.9041785393231523</v>
       </c>
       <c r="D97" t="n">
         <v>0.8175388309725494</v>
@@ -8686,7 +8686,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.6957256904596907</v>
+        <v>0.6957256904596905</v>
       </c>
       <c r="D98" t="n">
         <v>0.4840342363656132</v>
@@ -8726,7 +8726,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.9592480496607415</v>
+        <v>0.9592480496607412</v>
       </c>
       <c r="D100" t="n">
         <v>0.9201568207779358</v>
@@ -8740,17 +8740,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A38:A46"/>
     <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A56:A64"/>
     <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A38:A46"/>
     <mergeCell ref="A74:A82"/>
     <mergeCell ref="A83:A91"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A20:A28"/>
     <mergeCell ref="A92:A100"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8804,7 +8804,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5501239285457276</v>
+        <v>0.5501239285457277</v>
       </c>
       <c r="D2" t="n">
         <v>0.3026363367585846</v>
@@ -8824,7 +8824,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3486229816234633</v>
+        <v>0.3486229816234634</v>
       </c>
       <c r="D3" t="n">
         <v>0.1215379833160336</v>
@@ -8844,7 +8844,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.4645884101053167</v>
+        <v>0.4645884101053165</v>
       </c>
       <c r="D4" t="n">
         <v>0.2158423908041859</v>
@@ -8868,7 +8868,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2949498088222751</v>
+        <v>0.294949808822275</v>
       </c>
       <c r="D5" t="n">
         <v>0.08699538972429657</v>
@@ -8888,7 +8888,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.06763294549805854</v>
+        <v>0.06763294549805851</v>
       </c>
       <c r="D6" t="n">
         <v>0.004574215316743355</v>
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.5721545255288222</v>
+        <v>0.5721545255288221</v>
       </c>
       <c r="D8" t="n">
         <v>0.3273608010831115</v>
@@ -8952,7 +8952,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.3121716606627101</v>
+        <v>0.31217166066271</v>
       </c>
       <c r="D9" t="n">
         <v>0.09745114572091414</v>
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.7134541124899184</v>
+        <v>-0.7134541124899185</v>
       </c>
       <c r="D11" t="n">
         <v>0.5090167706287771</v>
@@ -9016,7 +9016,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.4875407040439334</v>
+        <v>-0.4875407040439333</v>
       </c>
       <c r="D12" t="n">
         <v>0.2376959380996542</v>
@@ -9036,7 +9036,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.5274646070202166</v>
+        <v>-0.5274646070202167</v>
       </c>
       <c r="D13" t="n">
         <v>0.2782189116589917</v>
@@ -9060,7 +9060,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.08463771731107692</v>
+        <v>0.08463771731107696</v>
       </c>
       <c r="D14" t="n">
         <v>0.007163543191629759</v>
@@ -9080,7 +9080,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.0339041003474112</v>
+        <v>-0.03390410034741118</v>
       </c>
       <c r="D15" t="n">
         <v>0.001149488020367326</v>
@@ -9124,7 +9124,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.7134541124899184</v>
+        <v>0.7134541124899185</v>
       </c>
       <c r="D17" t="n">
         <v>0.5090167706287771</v>
@@ -9144,7 +9144,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.4875407040439334</v>
+        <v>0.4875407040439333</v>
       </c>
       <c r="D18" t="n">
         <v>0.2376959380996542</v>
@@ -9164,7 +9164,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.5274646070202166</v>
+        <v>0.5274646070202167</v>
       </c>
       <c r="D19" t="n">
         <v>0.2782189116589917</v>
@@ -9228,7 +9228,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.3665995290621628</v>
+        <v>0.3665995290621627</v>
       </c>
       <c r="D22" t="n">
         <v>0.1343952147085996</v>
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.5501962382720883</v>
+        <v>0.5501962382720882</v>
       </c>
       <c r="D23" t="n">
         <v>0.3027159006087562</v>
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3486968914947686</v>
+        <v>0.3486968914947685</v>
       </c>
       <c r="D24" t="n">
         <v>0.1215895221381143</v>
@@ -9292,7 +9292,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.4646407651778134</v>
+        <v>0.4646407651778135</v>
       </c>
       <c r="D25" t="n">
         <v>0.2158910406650241</v>
@@ -9336,7 +9336,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.0335816748903405</v>
+        <v>0.03358167489034052</v>
       </c>
       <c r="D27" t="n">
         <v>0.001127728888440525</v>
@@ -9400,7 +9400,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.0335816748903405</v>
+        <v>0.03358167489034052</v>
       </c>
       <c r="D30" t="n">
         <v>0.001127728888440525</v>
@@ -9444,7 +9444,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.6252704433635781</v>
+        <v>0.6252704433635782</v>
       </c>
       <c r="D32" t="n">
         <v>0.3909631273440855</v>
@@ -9464,7 +9464,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.3683037062894529</v>
+        <v>0.368303706289453</v>
       </c>
       <c r="D33" t="n">
         <v>0.1356476200665477</v>
@@ -9498,17 +9498,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A23:A25"/>
     <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
